--- a/PATTERN/Weave.xlsx
+++ b/PATTERN/Weave.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="10320"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="94" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="160" r:id="rId1"/>
+    <sheet name="Sheet13" sheetId="146" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,18 +25,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="4">
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="12">
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
   </si>
 </sst>
 </file>
@@ -353,106 +378,289 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
         <v>2</v>
       </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
